--- a/Extra Work/hlr for problem user.xlsx
+++ b/Extra Work/hlr for problem user.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NCS\Documents\GitHub\Nirav_Tops\Extra Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B61380-EE04-437F-8C5D-CF53E70ACD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Scenario" sheetId="5" r:id="rId3"/>
+    <sheet name="Defect Report" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Scenario'!$A$1:$G$21</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="175">
   <si>
     <t>functionality id</t>
   </si>
@@ -603,11 +608,44 @@
   <si>
     <t xml:space="preserve">same as 19 test case id </t>
   </si>
+  <si>
+    <t>Test Case Scenario</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Test Summery</t>
+  </si>
+  <si>
+    <t>Reproduced Step</t>
+  </si>
+  <si>
+    <t>Defect Types</t>
+  </si>
+  <si>
+    <t>Defect Severity</t>
+  </si>
+  <si>
+    <t>Defect Priority</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Nirav Goti</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,7 +925,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -976,23 +1031,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1028,23 +1066,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -1650,10 +1671,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -2423,7 +2444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>26</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2481,7 +2502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>28</v>
       </c>
@@ -2800,7 +2821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>39</v>
       </c>
@@ -2887,7 +2908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>42</v>
       </c>
@@ -3039,7 +3060,1439 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>16</v>
+      </c>
+      <c r="B3" s="35">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>17</v>
+      </c>
+      <c r="B4" s="39">
+        <v>20</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>19</v>
+      </c>
+      <c r="B5" s="36">
+        <v>22</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>20</v>
+      </c>
+      <c r="B6" s="13">
+        <v>23</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13">
+        <v>26</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>26</v>
+      </c>
+      <c r="B10" s="36">
+        <v>29</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13">
+        <v>30</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>31</v>
+      </c>
+      <c r="B12" s="36">
+        <v>40</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>33</v>
+      </c>
+      <c r="B13" s="36">
+        <v>42</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>37</v>
+      </c>
+      <c r="B14" s="36">
+        <v>62</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>38</v>
+      </c>
+      <c r="B15" s="13">
+        <v>63</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
+        <v>39</v>
+      </c>
+      <c r="B16" s="47">
+        <v>64</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>42</v>
+      </c>
+      <c r="B17" s="36">
+        <v>67</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>43</v>
+      </c>
+      <c r="B18" s="13">
+        <v>68</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>44</v>
+      </c>
+      <c r="B19" s="13">
+        <v>69</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>45</v>
+      </c>
+      <c r="B20" s="55">
+        <v>70</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="21" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
+        <v>46</v>
+      </c>
+      <c r="B21" s="13">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="12" customWidth="1"/>
+    <col min="4" max="7" width="29.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="12" customWidth="1"/>
+    <col min="10" max="12" width="16.42578125" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>3</v>
+      </c>
+      <c r="B3" s="32">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32">
+        <v>2</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>8</v>
+      </c>
+      <c r="B8" s="32">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>9</v>
+      </c>
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32">
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>11</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>12</v>
+      </c>
+      <c r="B12" s="32">
+        <v>2</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>13</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>14</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="32"/>
+      <c r="M14" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>15</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="32"/>
+      <c r="M15" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>18</v>
+      </c>
+      <c r="B16" s="41">
+        <v>21</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>24</v>
+      </c>
+      <c r="B17" s="41">
+        <v>27</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>25</v>
+      </c>
+      <c r="B18" s="41">
+        <v>28</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>28</v>
+      </c>
+      <c r="B19" s="41">
+        <v>31</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>29</v>
+      </c>
+      <c r="B20" s="41">
+        <v>32</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="41">
+        <v>30</v>
+      </c>
+      <c r="B21" s="41">
+        <v>33</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="41">
+        <v>32</v>
+      </c>
+      <c r="B22" s="41">
+        <v>41</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="41">
+        <v>34</v>
+      </c>
+      <c r="B23" s="41">
+        <v>43</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="41">
+        <v>35</v>
+      </c>
+      <c r="B24" s="41">
+        <v>60</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <v>36</v>
+      </c>
+      <c r="B25" s="41">
+        <v>61</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <v>40</v>
+      </c>
+      <c r="B26" s="41">
+        <v>65</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="41">
+        <v>41</v>
+      </c>
+      <c r="B27" s="41">
+        <v>66</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Extra Work/hlr for problem user.xlsx
+++ b/Extra Work/hlr for problem user.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Defect Report'!$A$1:$M$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Test Scenario'!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="206">
   <si>
     <t>functionality id</t>
   </si>
@@ -554,9 +554,6 @@
     <t>while clicking on back to product it is  working properly</t>
   </si>
   <si>
-    <t>while clicking on back to product it is  working properly but when new page open status show product was not found.</t>
-  </si>
-  <si>
     <t>while clicking on the image, it is working properly, but when open a new page different image show</t>
   </si>
   <si>
@@ -641,12 +638,108 @@
   <si>
     <t>Nirav Goti</t>
   </si>
+  <si>
+    <t>Functionality,Usability</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OqqGFyAXUvx0FyuwGSB1oXe8PyP-brv4/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pnqqx7BrAy9nquRGxhEq_p8EJkrFU6iP/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13thNMRlFeNJG0nFq5v4K5vbxFicAjJ9D/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ff8bt_6Cp4MDdT_kcQ5C_uXALnvzA73K/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vmopai2edZWZMCTBj7S1btChvGFkybkn/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yL51q-67Z-5ef8wtTJ28hb5qUn7tb7OL/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IiWMwzzh3Ag9GGdpaZbfz0Hl1p8o798Z/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tjczOUN2MnJt7pujB8hNgQhXN6NcnfEp/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wn9CexXAYgQD9xgFfeHZta2BoqdrVIpf/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/163gDDOHpTQXZcGsF4zXRsZrPQtwLn0Qy/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uLlIwfOyLVcbLhsFfkM-4t1XLpgZM9k4/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pPqr87s8MaZ8tshH6dj_gqhh2brJfiW2/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15myyxzuEA3B4mx4IPStFtANf6B-pqPV_/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Eg1UpsSLTMZw-GT92jHsES2evKUYTfbw/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tjl6H7yTF4C9Uf0NmDdxjW1mYBVl4ZuV/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>functionality,database</t>
+  </si>
+  <si>
+    <t>Functionality,database</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TAuImLKKRsS4zZjgtX46-M8pFGKbfshw/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HwsleNhBgOpKHbjfbEbud1nmMHkupzxk/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rG3Tjszc62n9BhaRCvJlAse_rItSpyZw/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BE-DW7ce6kdPcYnsxPKpuGyS86u_oPJR/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fLQmQ7w-OVA_pB0ADEa3mYs9msP8VMxt/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>functonality,database</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14Z1yunkmKOkydvQYcq4UG4jSN8GdazH3/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wes5lEgeydYHZFctW52-8uWcbOLXRF0s/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bH-u-NLna_bORIEuYRv4PY5ljxS0H5zm/view?usp=share_link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +796,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -764,10 +865,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -921,28 +1023,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1516,7 +1608,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1672,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,13 +2521,13 @@
         <v>67</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>110</v>
@@ -2676,21 +2768,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="41">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>69</v>
@@ -2705,27 +2797,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="41">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>110</v>
@@ -2734,52 +2826,52 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
-        <v>36</v>
-      </c>
-      <c r="B37" s="41">
-        <v>61</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="32" t="s">
+    <row r="37" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
+        <v>37</v>
+      </c>
+      <c r="B37" s="36">
+        <v>62</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
-        <v>37</v>
-      </c>
-      <c r="B38" s="36">
-        <v>62</v>
-      </c>
-      <c r="C38" s="36" t="s">
+      <c r="F37" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="H37" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>38</v>
+      </c>
+      <c r="B38" s="13">
+        <v>63</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="F38" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="40" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="35" t="s">
@@ -2792,143 +2884,143 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13">
-        <v>63</v>
-      </c>
-      <c r="C39" s="13" t="s">
+    <row r="39" spans="1:9" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="47">
+        <v>39</v>
+      </c>
+      <c r="B39" s="47">
+        <v>64</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
         <v>40</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="B40" s="41">
+        <v>65</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="24" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
-        <v>39</v>
-      </c>
-      <c r="B40" s="47">
-        <v>64</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I40" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="E40" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="41">
-        <v>65</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>155</v>
+        <v>66</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>69</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="41">
-        <v>41</v>
-      </c>
-      <c r="B42" s="41">
-        <v>66</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="32" t="s">
+    <row r="42" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
+        <v>42</v>
+      </c>
+      <c r="B42" s="36">
         <v>67</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="24" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
-        <v>42</v>
-      </c>
-      <c r="B43" s="36">
+      <c r="C42" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>156</v>
+      <c r="E42" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>43</v>
+      </c>
+      <c r="B43" s="13">
+        <v>68</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>131</v>
+      <c r="G43" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>110</v>
@@ -2939,13 +3031,13 @@
     </row>
     <row r="44" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>67</v>
@@ -2967,89 +3059,60 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13">
-        <v>69</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="A45" s="55">
+        <v>45</v>
+      </c>
+      <c r="B45" s="55">
+        <v>70</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="36" t="s">
+      <c r="H45" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="55">
-        <v>45</v>
-      </c>
-      <c r="B46" s="55">
-        <v>70</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="49" t="s">
+    <row r="46" spans="1:9" s="21" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="58">
+        <v>46</v>
+      </c>
+      <c r="B46" s="13">
+        <v>71</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="21" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13">
-        <v>71</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="37" t="s">
+      <c r="E46" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="35" t="s">
+      <c r="F46" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="36" t="s">
+      <c r="H46" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="36" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3087,7 +3150,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>61</v>
@@ -3386,7 +3449,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>141</v>
@@ -3395,7 +3458,7 @@
         <v>69</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>110</v>
@@ -3418,7 +3481,7 @@
         <v>69</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>110</v>
@@ -3432,7 +3495,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>127</v>
@@ -3455,7 +3518,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>130</v>
@@ -3487,7 +3550,7 @@
         <v>69</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>110</v>
@@ -3510,7 +3573,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>110</v>
@@ -3533,7 +3596,7 @@
         <v>69</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="51" t="s">
         <v>110</v>
@@ -3547,7 +3610,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="37" t="s">
         <v>118</v>
@@ -3569,10 +3632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,8 +3643,9 @@
     <col min="1" max="1" width="16.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" style="12" customWidth="1"/>
-    <col min="4" max="7" width="29.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="12" customWidth="1"/>
+    <col min="6" max="8" width="29.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="12" customWidth="1"/>
     <col min="10" max="12" width="16.42578125" style="12" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="12"/>
@@ -3589,28 +3653,28 @@
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>169</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>63</v>
@@ -3619,10 +3683,10 @@
         <v>64</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>172</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>65</v>
@@ -3641,11 +3705,17 @@
       <c r="D2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H2" s="34" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>75</v>
@@ -3654,11 +3724,13 @@
         <v>76</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>178</v>
+      </c>
       <c r="M2" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="93.75" x14ac:dyDescent="0.25">
@@ -3674,11 +3746,17 @@
       <c r="D3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H3" s="34" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>81</v>
@@ -3687,11 +3765,13 @@
         <v>82</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>179</v>
+      </c>
       <c r="M3" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3707,11 +3787,17 @@
       <c r="D4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H4" s="34" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>81</v>
@@ -3720,11 +3806,13 @@
         <v>82</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="M4" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3740,11 +3828,17 @@
       <c r="D5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H5" s="34" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>81</v>
@@ -3753,11 +3847,13 @@
         <v>82</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>181</v>
+      </c>
       <c r="M5" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3773,11 +3869,17 @@
       <c r="D6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H6" s="34" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="I6" s="32" t="s">
         <v>81</v>
@@ -3786,11 +3888,13 @@
         <v>82</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>182</v>
+      </c>
       <c r="M6" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3806,11 +3910,17 @@
       <c r="D7" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="E7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H7" s="34" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>81</v>
@@ -3819,11 +3929,13 @@
         <v>82</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>183</v>
+      </c>
       <c r="M7" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3839,11 +3951,17 @@
       <c r="D8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="E8" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H8" s="34" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="I8" s="32" t="s">
         <v>81</v>
@@ -3852,11 +3970,13 @@
         <v>82</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>184</v>
+      </c>
       <c r="M8" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3872,11 +3992,17 @@
       <c r="D9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H9" s="34" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="I9" s="32" t="s">
         <v>81</v>
@@ -3885,11 +4011,13 @@
         <v>82</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>185</v>
+      </c>
       <c r="M9" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3905,11 +4033,17 @@
       <c r="D10" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H10" s="34" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="I10" s="32" t="s">
         <v>81</v>
@@ -3918,11 +4052,13 @@
         <v>82</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>186</v>
+      </c>
       <c r="M10" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -3938,11 +4074,17 @@
       <c r="D11" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H11" s="34" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>81</v>
@@ -3951,14 +4093,16 @@
         <v>82</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>187</v>
+      </c>
       <c r="M11" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>12</v>
       </c>
@@ -3971,11 +4115,17 @@
       <c r="D12" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H12" s="34" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="I12" s="32" t="s">
         <v>81</v>
@@ -3984,11 +4134,13 @@
         <v>82</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>188</v>
+      </c>
       <c r="M12" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -4004,11 +4156,17 @@
       <c r="D13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="E13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H13" s="34" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="I13" s="32" t="s">
         <v>81</v>
@@ -4017,11 +4175,13 @@
         <v>82</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>189</v>
+      </c>
       <c r="M13" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -4037,11 +4197,17 @@
       <c r="D14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="E14" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H14" s="34" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="I14" s="32" t="s">
         <v>81</v>
@@ -4050,11 +4216,13 @@
         <v>82</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L14" s="59" t="s">
+        <v>190</v>
+      </c>
       <c r="M14" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -4070,11 +4238,17 @@
       <c r="D15" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>175</v>
+      </c>
       <c r="H15" s="34" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="I15" s="32" t="s">
         <v>81</v>
@@ -4083,11 +4257,13 @@
         <v>82</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="L15" s="59" t="s">
+        <v>191</v>
+      </c>
       <c r="M15" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
@@ -4103,11 +4279,17 @@
       <c r="D16" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32" t="s">
-        <v>69</v>
+      <c r="E16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>116</v>
@@ -4116,11 +4298,13 @@
         <v>110</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>192</v>
+      </c>
       <c r="M16" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
@@ -4136,11 +4320,17 @@
       <c r="D17" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="44" t="s">
-        <v>69</v>
+      <c r="E17" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>129</v>
@@ -4149,11 +4339,13 @@
         <v>110</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>197</v>
+      </c>
       <c r="M17" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -4167,26 +4359,34 @@
         <v>20</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="44" t="s">
-        <v>69</v>
+        <v>156</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>110</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>198</v>
+      </c>
       <c r="M18" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -4202,11 +4402,17 @@
       <c r="D19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="44" t="s">
-        <v>69</v>
+      <c r="E19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>135</v>
@@ -4215,11 +4421,13 @@
         <v>110</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>199</v>
+      </c>
       <c r="M19" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -4235,11 +4443,17 @@
       <c r="D20" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="44" t="s">
-        <v>69</v>
+      <c r="E20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>137</v>
@@ -4248,11 +4462,13 @@
         <v>110</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L20" s="60" t="s">
+        <v>200</v>
+      </c>
       <c r="M20" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
@@ -4268,11 +4484,17 @@
       <c r="D21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="44" t="s">
-        <v>69</v>
+      <c r="E21" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>140</v>
@@ -4281,11 +4503,13 @@
         <v>110</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>201</v>
+      </c>
       <c r="M21" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="18" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
@@ -4301,11 +4525,17 @@
       <c r="D22" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="44" t="s">
-        <v>69</v>
+      <c r="E22" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>144</v>
@@ -4314,31 +4544,39 @@
         <v>110</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L22" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>203</v>
+      </c>
       <c r="M22" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="41">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="44" t="s">
-        <v>69</v>
+        <v>139</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="I23" s="32" t="s">
         <v>147</v>
@@ -4347,146 +4585,166 @@
         <v>110</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="L23" s="60" t="s">
+        <v>204</v>
+      </c>
       <c r="M23" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="41">
+        <v>36</v>
+      </c>
+      <c r="B24" s="41">
+        <v>61</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="30" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
-        <v>35</v>
-      </c>
-      <c r="B24" s="41">
-        <v>60</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="60" t="s">
+        <v>205</v>
+      </c>
       <c r="M24" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <v>40</v>
+      </c>
+      <c r="B25" s="41">
+        <v>65</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="30" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
-        <v>36</v>
-      </c>
-      <c r="B25" s="41">
-        <v>61</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="60" t="s">
+        <v>197</v>
+      </c>
       <c r="M25" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="41">
+        <v>41</v>
+      </c>
+      <c r="B26" s="41">
+        <v>66</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
-        <v>40</v>
-      </c>
-      <c r="B26" s="41">
-        <v>65</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="60" t="s">
+        <v>198</v>
+      </c>
       <c r="M26" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
-        <v>41</v>
-      </c>
-      <c r="B27" s="41">
-        <v>66</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
